--- a/2104转正/PPT素材/销售数据导出.xlsx
+++ b/2104转正/PPT素材/销售数据导出.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wupeng\Desktop\转正相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wupeng\Desktop\转正相关\2104转正\PPT素材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E855F3B4-43F5-4C28-A028-86A22F5109E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EE2DEA-E953-496A-AE02-078059C349E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
-    <sheet name="满意度" sheetId="6" r:id="rId2"/>
-    <sheet name="销售额" sheetId="3" r:id="rId3"/>
+    <sheet name="销售额" sheetId="3" r:id="rId2"/>
+    <sheet name="满意度" sheetId="6" r:id="rId3"/>
     <sheet name="响应时长" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -277,6 +277,614 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>销售额</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>销售额!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>销售额</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>销售额!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>销售额!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>233268.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>872111.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>572376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532004.30000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>474271.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264293.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>438160.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>396076.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300294.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252341.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>484993.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A320-4857-BB75-CC9A608C3020}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>销售额!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>店铺平均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>销售额!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>销售额!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>206461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>419501.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>269417.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288506.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236700.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136074.29999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191333.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224791.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143546.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>257011.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A320-4857-BB75-CC9A608C3020}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="2129388783"/>
+        <c:axId val="2129387535"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:dateAx>
+        <c:axId val="2129388783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129387535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2129387535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129388783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN"/>
+                    <a:t>(</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US"/>
+                    <a:t>万元</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN"/>
+                    <a:t>)</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -962,614 +1570,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>销售额</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>销售额!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>销售额</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>销售额!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>销售额!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>233268.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>872111.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>572376</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>532004.30000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>474271.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>264293.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>438160.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>396076.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300294.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>252341.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>484993.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A320-4857-BB75-CC9A608C3020}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>销售额!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>店铺平均</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>销售额!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>销售额!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>206461</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>419501.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>269417.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>288506.40000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>236700.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>136074.29999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>191333.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>224791.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>177851</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>143546.70000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>257011.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A320-4857-BB75-CC9A608C3020}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="2129388783"/>
-        <c:axId val="2129387535"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:dateAx>
-        <c:axId val="2129388783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2129387535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="2129387535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2129388783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="tenThousands"/>
-          <c:dispUnitsLbl>
-            <c:tx>
-              <c:rich>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-US" altLang="zh-CN"/>
-                    <a:t>(</a:t>
-                  </a:r>
-                  <a:r>
-                    <a:rPr lang="zh-CN" altLang="en-US"/>
-                    <a:t>万元</a:t>
-                  </a:r>
-                  <a:r>
-                    <a:rPr lang="en-US" altLang="zh-CN"/>
-                    <a:t>)</a:t>
-                  </a:r>
-                </a:p>
-              </c:rich>
-            </c:tx>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2090,6 +2090,500 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2606,500 +3100,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3610,23 +3610,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEA18E1-65E4-43A0-AA70-00109B8E8C7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E289DB88-6271-4AA9-886C-ACCA4A41DB76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3651,23 +3651,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E289DB88-6271-4AA9-886C-ACCA4A41DB76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEA18E1-65E4-43A0-AA70-00109B8E8C7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4644,10 +4644,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA99BA04-46E2-4AD6-9CF4-7D54D2407BA7}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B2" s="10">
+        <v>233268.8</v>
+      </c>
+      <c r="C2" s="13">
+        <v>206461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B3" s="10">
+        <v>872111.9</v>
+      </c>
+      <c r="C3" s="10">
+        <v>419501.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B4" s="10">
+        <v>572376</v>
+      </c>
+      <c r="C4" s="10">
+        <v>269417.59999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B5" s="10">
+        <v>532004.30000000005</v>
+      </c>
+      <c r="C5" s="10">
+        <v>288506.40000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B6" s="10">
+        <v>474271.6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>236700.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B7" s="10">
+        <v>264293.2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>136074.29999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B8" s="10">
+        <v>438160.3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>191333.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B9" s="10">
+        <v>396076.2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>224791.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B10" s="10">
+        <v>300294.5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>177851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B11" s="10">
+        <v>252341.5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>143546.70000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B12" s="10">
+        <v>484993.5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>257011.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E735BF-7B6C-4406-AB67-74C9E5A9BFE6}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4839,160 +4993,6 @@
       <c r="C16" s="4">
         <f>SUM(C13:C15)/3</f>
         <v>0.9670333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA99BA04-46E2-4AD6-9CF4-7D54D2407BA7}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B2" s="10">
-        <v>233268.8</v>
-      </c>
-      <c r="C2" s="13">
-        <v>206461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B3" s="10">
-        <v>872111.9</v>
-      </c>
-      <c r="C3" s="10">
-        <v>419501.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44013</v>
-      </c>
-      <c r="B4" s="10">
-        <v>572376</v>
-      </c>
-      <c r="C4" s="10">
-        <v>269417.59999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44044</v>
-      </c>
-      <c r="B5" s="10">
-        <v>532004.30000000005</v>
-      </c>
-      <c r="C5" s="10">
-        <v>288506.40000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>44075</v>
-      </c>
-      <c r="B6" s="10">
-        <v>474271.6</v>
-      </c>
-      <c r="C6" s="10">
-        <v>236700.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44105</v>
-      </c>
-      <c r="B7" s="10">
-        <v>264293.2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>136074.29999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44136</v>
-      </c>
-      <c r="B8" s="10">
-        <v>438160.3</v>
-      </c>
-      <c r="C8" s="10">
-        <v>191333.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44166</v>
-      </c>
-      <c r="B9" s="10">
-        <v>396076.2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>224791.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B10" s="10">
-        <v>300294.5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>177851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44228</v>
-      </c>
-      <c r="B11" s="10">
-        <v>252341.5</v>
-      </c>
-      <c r="C11" s="10">
-        <v>143546.70000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>44256</v>
-      </c>
-      <c r="B12" s="10">
-        <v>484993.5</v>
-      </c>
-      <c r="C12" s="10">
-        <v>257011.9</v>
       </c>
     </row>
   </sheetData>
